--- a/fgconfgen_req/OTPC_FWrule_Dev.CT901CASH1_20190416.xlsx
+++ b/fgconfgen_req/OTPC_FWrule_Dev.CT901CASH1_20190416.xlsx
@@ -14513,7 +14513,14 @@
     <cellStyle name="Warning Text" xfId="28" builtinId="11" customBuiltin="1"/>
     <cellStyle name="一般 2" xfId="57"/>
   </cellStyles>
-  <dxfs count="170">
+  <dxfs count="171">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -16243,7 +16250,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16309,7 +16316,7 @@
         <v>3046</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>3978</v>
+        <v>8</v>
       </c>
       <c r="C2" s="106" t="s">
         <v>1248</v>
@@ -16359,7 +16366,7 @@
         <v>3046</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>3979</v>
+        <v>8</v>
       </c>
       <c r="C3" s="106" t="s">
         <v>3006</v>
@@ -16506,7 +16513,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B5">
-    <cfRule type="duplicateValues" dxfId="169" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -79938,511 +79945,511 @@
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B708 B1:B3 B66:B106 B355:B356 B108:B123 B358:B359 B125:B154 B156:B161 B163:B170 B222:B225 B228:B259 B175:B179 B209:B216 B218:B220 B181:B202 B674 B761:B762 B782:B1048576">
-    <cfRule type="duplicateValues" dxfId="168" priority="452"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="452"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B239">
-    <cfRule type="duplicateValues" dxfId="167" priority="451"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B240:B251">
-    <cfRule type="duplicateValues" dxfId="166" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253">
-    <cfRule type="duplicateValues" dxfId="165" priority="437"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="437"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B252">
-    <cfRule type="duplicateValues" dxfId="164" priority="436"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="436"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B254">
-    <cfRule type="duplicateValues" dxfId="163" priority="434"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="434"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255">
-    <cfRule type="duplicateValues" dxfId="162" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="433"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B256">
-    <cfRule type="duplicateValues" dxfId="161" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="432"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B257">
-    <cfRule type="duplicateValues" dxfId="160" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258">
-    <cfRule type="duplicateValues" dxfId="159" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="430"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B259">
-    <cfRule type="duplicateValues" dxfId="158" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="429"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B260:B262">
-    <cfRule type="duplicateValues" dxfId="157" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="424"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B260:B262">
-    <cfRule type="duplicateValues" dxfId="156" priority="423"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="155" priority="422"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="422"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B264">
-    <cfRule type="duplicateValues" dxfId="154" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="421"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="153" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="420"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B265">
-    <cfRule type="duplicateValues" dxfId="152" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="419"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="151" priority="416"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="416"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B263">
-    <cfRule type="duplicateValues" dxfId="150" priority="415"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="415"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266:B267">
-    <cfRule type="duplicateValues" dxfId="149" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="410"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B266:B267">
-    <cfRule type="duplicateValues" dxfId="148" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14 B20:B65">
-    <cfRule type="duplicateValues" dxfId="147" priority="458"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="458"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268:B270">
-    <cfRule type="duplicateValues" dxfId="146" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="404"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268:B270">
-    <cfRule type="duplicateValues" dxfId="145" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="403"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273:B274">
-    <cfRule type="duplicateValues" dxfId="144" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="397"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273:B274">
-    <cfRule type="duplicateValues" dxfId="143" priority="396"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="396"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271:B272">
-    <cfRule type="duplicateValues" dxfId="142" priority="395"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="395"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B271:B272">
-    <cfRule type="duplicateValues" dxfId="141" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="394"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275:B276">
-    <cfRule type="duplicateValues" dxfId="140" priority="392"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="392"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B275:B276">
-    <cfRule type="duplicateValues" dxfId="139" priority="391"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="391"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B279 B281:B312 B314:B326 B328:B331 B333:B353">
-    <cfRule type="duplicateValues" dxfId="138" priority="380"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="380"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:B279 B281:B312 B314:B326 B328:B331 B333:B353">
-    <cfRule type="duplicateValues" dxfId="137" priority="379"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="379"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B354:B359">
-    <cfRule type="duplicateValues" dxfId="136" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="378"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B354:B359">
-    <cfRule type="duplicateValues" dxfId="135" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="377"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B357">
-    <cfRule type="duplicateValues" dxfId="134" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="376"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="duplicateValues" dxfId="133" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="374"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B361">
-    <cfRule type="duplicateValues" dxfId="132" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B361">
-    <cfRule type="duplicateValues" dxfId="131" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="368"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B361">
-    <cfRule type="duplicateValues" dxfId="130" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="duplicateValues" dxfId="129" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="361"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B362:B377">
-    <cfRule type="duplicateValues" dxfId="128" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="360"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B362:B377">
-    <cfRule type="duplicateValues" dxfId="127" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="359"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B362:B377">
-    <cfRule type="duplicateValues" dxfId="126" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="358"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155">
-    <cfRule type="duplicateValues" dxfId="125" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="357"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="124" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="356"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221">
-    <cfRule type="duplicateValues" dxfId="123" priority="355"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="355"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B227">
-    <cfRule type="duplicateValues" dxfId="122" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="354"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B382">
-    <cfRule type="duplicateValues" dxfId="121" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="348"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B382">
-    <cfRule type="duplicateValues" dxfId="120" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B382">
-    <cfRule type="duplicateValues" dxfId="119" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="346"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B19">
-    <cfRule type="duplicateValues" dxfId="118" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="323"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B171:B174">
-    <cfRule type="duplicateValues" dxfId="117" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:B208">
-    <cfRule type="duplicateValues" dxfId="116" priority="321"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B217">
-    <cfRule type="duplicateValues" dxfId="115" priority="320"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B226">
-    <cfRule type="duplicateValues" dxfId="114" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="319"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="113" priority="318"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="duplicateValues" dxfId="112" priority="317"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="317"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B313">
-    <cfRule type="duplicateValues" dxfId="111" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="316"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B313">
-    <cfRule type="duplicateValues" dxfId="110" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="315"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B327">
-    <cfRule type="duplicateValues" dxfId="109" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="314"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B327">
-    <cfRule type="duplicateValues" dxfId="108" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="313"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B332">
-    <cfRule type="duplicateValues" dxfId="107" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="312"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B332">
-    <cfRule type="duplicateValues" dxfId="106" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="311"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B383:B441 B444:B453">
-    <cfRule type="duplicateValues" dxfId="105" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="307"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B383:B441 B444:B453">
-    <cfRule type="duplicateValues" dxfId="104" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B383:B441 B444:B453">
-    <cfRule type="duplicateValues" dxfId="103" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B378:B380">
-    <cfRule type="duplicateValues" dxfId="102" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B378:B380">
-    <cfRule type="duplicateValues" dxfId="101" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B378:B380">
-    <cfRule type="duplicateValues" dxfId="100" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B442:B443">
-    <cfRule type="duplicateValues" dxfId="99" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B442:B443">
-    <cfRule type="duplicateValues" dxfId="98" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B442:B443">
-    <cfRule type="duplicateValues" dxfId="97" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B454:B468 B470:B504">
-    <cfRule type="duplicateValues" dxfId="96" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B454:B468 B470:B504">
-    <cfRule type="duplicateValues" dxfId="95" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B454:B468 B470:B504">
-    <cfRule type="duplicateValues" dxfId="94" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B381">
-    <cfRule type="duplicateValues" dxfId="93" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="248"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B381">
-    <cfRule type="duplicateValues" dxfId="92" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B381">
-    <cfRule type="duplicateValues" dxfId="91" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B515">
-    <cfRule type="duplicateValues" dxfId="90" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="242"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B515">
-    <cfRule type="duplicateValues" dxfId="89" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B505:B515">
-    <cfRule type="duplicateValues" dxfId="88" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="240"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="duplicateValues" dxfId="87" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="duplicateValues" dxfId="86" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B516">
-    <cfRule type="duplicateValues" dxfId="85" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B469">
-    <cfRule type="duplicateValues" dxfId="84" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B469">
-    <cfRule type="duplicateValues" dxfId="83" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B469">
-    <cfRule type="duplicateValues" dxfId="82" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B561">
-    <cfRule type="duplicateValues" dxfId="81" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B561">
-    <cfRule type="duplicateValues" dxfId="80" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B517:B561">
-    <cfRule type="duplicateValues" dxfId="79" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B563:B564">
-    <cfRule type="duplicateValues" dxfId="78" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B563:B564">
-    <cfRule type="duplicateValues" dxfId="77" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B563:B564">
-    <cfRule type="duplicateValues" dxfId="76" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B562">
-    <cfRule type="duplicateValues" dxfId="75" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B562">
-    <cfRule type="duplicateValues" dxfId="74" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B562">
-    <cfRule type="duplicateValues" dxfId="73" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B565">
-    <cfRule type="duplicateValues" dxfId="72" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B565">
-    <cfRule type="duplicateValues" dxfId="71" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B565">
-    <cfRule type="duplicateValues" dxfId="70" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B566">
-    <cfRule type="duplicateValues" dxfId="69" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B566">
-    <cfRule type="duplicateValues" dxfId="68" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B566">
-    <cfRule type="duplicateValues" dxfId="67" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B567">
-    <cfRule type="duplicateValues" dxfId="66" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B567">
-    <cfRule type="duplicateValues" dxfId="65" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B567">
-    <cfRule type="duplicateValues" dxfId="64" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B568 B570">
-    <cfRule type="duplicateValues" dxfId="63" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B568 B570">
-    <cfRule type="duplicateValues" dxfId="62" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B568 B570">
-    <cfRule type="duplicateValues" dxfId="61" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B571 B574:B583">
-    <cfRule type="duplicateValues" dxfId="60" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B571 B574:B583">
-    <cfRule type="duplicateValues" dxfId="59" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B571 B574:B583">
-    <cfRule type="duplicateValues" dxfId="58" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B584">
-    <cfRule type="duplicateValues" dxfId="57" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B584">
-    <cfRule type="duplicateValues" dxfId="56" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B584">
-    <cfRule type="duplicateValues" dxfId="55" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586">
-    <cfRule type="duplicateValues" dxfId="54" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586">
-    <cfRule type="duplicateValues" dxfId="53" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586">
-    <cfRule type="duplicateValues" dxfId="52" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B587">
-    <cfRule type="duplicateValues" dxfId="51" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B587">
-    <cfRule type="duplicateValues" dxfId="50" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B587">
-    <cfRule type="duplicateValues" dxfId="49" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B585">
-    <cfRule type="duplicateValues" dxfId="48" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B585">
-    <cfRule type="duplicateValues" dxfId="47" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B585">
-    <cfRule type="duplicateValues" dxfId="46" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B588:B595 B597:B600 B602:B603">
-    <cfRule type="duplicateValues" dxfId="45" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B588:B595 B597:B600 B602:B603">
-    <cfRule type="duplicateValues" dxfId="44" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B588:B595 B597:B600 B602:B603">
-    <cfRule type="duplicateValues" dxfId="43" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B596">
-    <cfRule type="duplicateValues" dxfId="42" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B596">
-    <cfRule type="duplicateValues" dxfId="41" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B596">
-    <cfRule type="duplicateValues" dxfId="40" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B569">
-    <cfRule type="duplicateValues" dxfId="39" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B569">
-    <cfRule type="duplicateValues" dxfId="38" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B569">
-    <cfRule type="duplicateValues" dxfId="37" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B360">
-    <cfRule type="duplicateValues" dxfId="36" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B360">
-    <cfRule type="duplicateValues" dxfId="35" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B360">
-    <cfRule type="duplicateValues" dxfId="34" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180">
-    <cfRule type="duplicateValues" dxfId="33" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B675">
-    <cfRule type="duplicateValues" dxfId="32" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B676">
-    <cfRule type="duplicateValues" dxfId="31" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B604:B647 B649:B673">
-    <cfRule type="duplicateValues" dxfId="30" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B604:B647 B649:B673">
-    <cfRule type="duplicateValues" dxfId="29" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B604:B647 B649:B673">
-    <cfRule type="duplicateValues" dxfId="28" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B677:B678">
-    <cfRule type="duplicateValues" dxfId="27" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B648">
-    <cfRule type="duplicateValues" dxfId="26" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B648">
-    <cfRule type="duplicateValues" dxfId="25" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B648">
-    <cfRule type="duplicateValues" dxfId="24" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B679:B683">
-    <cfRule type="duplicateValues" dxfId="23" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B684:B685">
-    <cfRule type="duplicateValues" dxfId="22" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B572:B573">
-    <cfRule type="duplicateValues" dxfId="21" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B572:B573">
-    <cfRule type="duplicateValues" dxfId="20" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B572:B573">
-    <cfRule type="duplicateValues" dxfId="19" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B686:B687">
-    <cfRule type="duplicateValues" dxfId="18" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B688">
-    <cfRule type="duplicateValues" dxfId="17" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B689:B698">
-    <cfRule type="duplicateValues" dxfId="16" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B699:B705">
-    <cfRule type="duplicateValues" dxfId="15" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B706">
-    <cfRule type="duplicateValues" dxfId="14" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B707">
-    <cfRule type="duplicateValues" dxfId="13" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B601">
-    <cfRule type="duplicateValues" dxfId="12" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B601">
-    <cfRule type="duplicateValues" dxfId="11" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B601">
-    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B709:B741">
-    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B742:B743">
-    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B744:B758">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B760">
-    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B760">
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B760">
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B763:B765">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B766:B779">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B759">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B780:B781">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
